--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-dispenserequest-instructionfordispense.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationrequest-dispenserequest-instructionfordispense.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="133">
   <si>
     <t>Property</t>
   </si>
@@ -347,36 +347,11 @@
     <t>薬剤単位の調剤・払い出し指示</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>拡張値の値 / Value of extension</t>
-  </si>
-  <si>
-    <t>拡張値の値 - データ型の制約付きセットの1つでなければなりません（リストの[拡張性]（拡張性]（拡張性。html）を参照）。 / Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept.id</t>
-  </si>
-  <si>
     <t>Extension.value[x].id</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept.extension</t>
   </si>
   <si>
     <t>Extension.value[x].extension</t>
@@ -395,9 +370,6 @@
     <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.value[x]:valueCodeableConcept.coding</t>
-  </si>
-  <si>
     <t>Extension.value[x].coding</t>
   </si>
   <si>
@@ -430,9 +402,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Extension.value[x]:valueCodeableConcept.text</t>
   </si>
   <si>
     <t>Extension.value[x].text</t>
@@ -768,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK11"/>
+  <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -777,9 +746,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.52734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.703125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1415,14 +1384,16 @@
         <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AC6" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>105</v>
@@ -1437,7 +1408,7 @@
         <v>77</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>104</v>
@@ -1445,14 +1416,12 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
         <v>77</v>
       </c>
@@ -1473,13 +1442,13 @@
         <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1530,7 +1499,7 @@
         <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -1542,29 +1511,29 @@
         <v>77</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>77</v>
@@ -1576,15 +1545,17 @@
         <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>77</v>
@@ -1621,31 +1592,31 @@
         <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>90</v>
@@ -1653,14 +1624,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1676,21 +1647,23 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N9" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="N9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
       </c>
@@ -1714,31 +1687,29 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1750,18 +1721,18 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>90</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1772,7 +1743,7 @@
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
@@ -1781,10 +1752,10 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>127</v>
@@ -1821,151 +1792,46 @@
         <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
